--- a/src/main/resources/FeatureFiles/Register-a-deal FormTestCases.xlsx
+++ b/src/main/resources/FeatureFiles/Register-a-deal FormTestCases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/FeatureFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7979833E-2629-924F-86FC-EBF40E24CAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="14100" yWindow="1180" windowWidth="19420" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="124">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -400,13 +395,16 @@
   </si>
   <si>
     <t>deviceConfig.browser</t>
+  </si>
+  <si>
+    <t>{NULL}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,30 +796,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F836"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B694" workbookViewId="0">
+      <selection activeCell="D717" sqref="D717"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="67.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="83.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="83.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="38" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="2"/>
+    <col min="5" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -846,7 +844,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -854,7 +852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -862,7 +860,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -871,12 +869,12 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -890,7 +888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -901,7 +899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
@@ -912,7 +910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -923,7 +921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
@@ -934,7 +932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -945,7 +943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -956,7 +954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -967,7 +965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
@@ -978,7 +976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -989,7 +987,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
@@ -1000,7 +998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1011,7 +1009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
@@ -1022,7 +1020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
@@ -1033,7 +1031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1044,7 +1042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +1053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1066,7 +1064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1075,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1088,7 +1086,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1099,7 +1097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
@@ -1110,7 +1108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1121,7 +1119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
@@ -1132,7 +1130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1143,7 +1141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>13</v>
       </c>
@@ -1154,7 +1152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>12</v>
       </c>
@@ -1165,7 +1163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
@@ -1176,7 +1174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
@@ -1187,7 +1185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>12</v>
       </c>
@@ -1198,7 +1196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
@@ -1209,7 +1207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>26</v>
       </c>
@@ -1220,7 +1218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>12</v>
       </c>
@@ -1232,7 +1230,7 @@
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>13</v>
       </c>
@@ -1243,7 +1241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>12</v>
       </c>
@@ -1254,7 +1252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>46</v>
       </c>
@@ -1273,7 +1271,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
         <v>46</v>
       </c>
@@ -1281,7 +1279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
@@ -1289,7 +1287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
@@ -1303,7 +1301,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>111</v>
       </c>
@@ -1322,7 +1320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +1328,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>59</v>
       </c>
@@ -1341,7 +1339,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
         <v>12</v>
       </c>
@@ -1352,7 +1350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>13</v>
       </c>
@@ -1363,7 +1361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
         <v>12</v>
       </c>
@@ -1374,7 +1372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>13</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
         <v>12</v>
       </c>
@@ -1396,7 +1394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>13</v>
       </c>
@@ -1407,7 +1405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
         <v>12</v>
       </c>
@@ -1418,7 +1416,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>13</v>
       </c>
@@ -1429,7 +1427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="5" t="s">
         <v>12</v>
       </c>
@@ -1440,7 +1438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>13</v>
       </c>
@@ -1451,7 +1449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
         <v>12</v>
       </c>
@@ -1462,7 +1460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>13</v>
       </c>
@@ -1473,7 +1471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>26</v>
       </c>
@@ -1484,7 +1482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" s="5" t="s">
         <v>12</v>
       </c>
@@ -1495,7 +1493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>13</v>
       </c>
@@ -1506,7 +1504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="5" t="s">
         <v>12</v>
       </c>
@@ -1517,7 +1515,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>13</v>
       </c>
@@ -1528,7 +1526,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="5" t="s">
         <v>12</v>
       </c>
@@ -1539,7 +1537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +1548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B69" s="5" t="s">
         <v>12</v>
       </c>
@@ -1561,7 +1559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>13</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
         <v>12</v>
       </c>
@@ -1583,7 +1581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +1592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
         <v>12</v>
       </c>
@@ -1605,7 +1603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>13</v>
       </c>
@@ -1616,7 +1614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>26</v>
       </c>
@@ -1627,7 +1625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B76" s="5" t="s">
         <v>12</v>
       </c>
@@ -1638,7 +1636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="2:4">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>13</v>
       </c>
@@ -1649,7 +1647,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="2:4">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>26</v>
       </c>
@@ -1660,7 +1658,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" s="5" t="s">
         <v>12</v>
       </c>
@@ -1671,7 +1669,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="2:4">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>13</v>
       </c>
@@ -1682,7 +1680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B81" s="5" t="s">
         <v>12</v>
       </c>
@@ -1693,7 +1691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>13</v>
       </c>
@@ -1704,7 +1702,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B83" s="5" t="s">
         <v>46</v>
       </c>
@@ -1712,7 +1710,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B84" s="5" t="s">
         <v>46</v>
       </c>
@@ -1720,7 +1718,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>70</v>
       </c>
@@ -1734,7 +1732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>13</v>
       </c>
@@ -1745,7 +1743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B87" s="5" t="s">
         <v>12</v>
       </c>
@@ -1756,7 +1754,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>13</v>
       </c>
@@ -1767,7 +1765,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>111</v>
       </c>
@@ -1775,7 +1773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>7</v>
       </c>
@@ -1783,7 +1781,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>59</v>
       </c>
@@ -1794,7 +1792,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B92" s="5" t="s">
         <v>12</v>
       </c>
@@ -1805,7 +1803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
         <v>13</v>
       </c>
@@ -1816,7 +1814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B94" s="5" t="s">
         <v>12</v>
       </c>
@@ -1827,7 +1825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>13</v>
       </c>
@@ -1838,7 +1836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B96" s="5" t="s">
         <v>12</v>
       </c>
@@ -1849,7 +1847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
         <v>13</v>
       </c>
@@ -1860,7 +1858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B98" s="5" t="s">
         <v>12</v>
       </c>
@@ -1871,7 +1869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
         <v>13</v>
       </c>
@@ -1882,7 +1880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B100" s="5" t="s">
         <v>12</v>
       </c>
@@ -1893,7 +1891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>13</v>
       </c>
@@ -1904,7 +1902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
         <v>26</v>
       </c>
@@ -1915,7 +1913,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B103" s="5" t="s">
         <v>12</v>
       </c>
@@ -1926,7 +1924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
         <v>13</v>
       </c>
@@ -1937,7 +1935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B105" s="5" t="s">
         <v>12</v>
       </c>
@@ -1948,7 +1946,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="2:4">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
         <v>13</v>
       </c>
@@ -1959,7 +1957,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B107" s="5" t="s">
         <v>12</v>
       </c>
@@ -1970,7 +1968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
         <v>13</v>
       </c>
@@ -1981,7 +1979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B109" s="5" t="s">
         <v>12</v>
       </c>
@@ -1992,7 +1990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
         <v>13</v>
       </c>
@@ -2003,7 +2001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B111" s="5" t="s">
         <v>12</v>
       </c>
@@ -2014,7 +2012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="2" t="s">
         <v>13</v>
       </c>
@@ -2025,7 +2023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B113" s="5" t="s">
         <v>12</v>
       </c>
@@ -2036,7 +2034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
         <v>13</v>
       </c>
@@ -2047,7 +2045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
         <v>26</v>
       </c>
@@ -2058,7 +2056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B116" s="5" t="s">
         <v>12</v>
       </c>
@@ -2069,7 +2067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
         <v>13</v>
       </c>
@@ -2080,7 +2078,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
         <v>26</v>
       </c>
@@ -2091,7 +2089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B119" s="5" t="s">
         <v>12</v>
       </c>
@@ -2102,7 +2100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
         <v>13</v>
       </c>
@@ -2113,7 +2111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B121" s="5" t="s">
         <v>12</v>
       </c>
@@ -2124,7 +2122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
         <v>13</v>
       </c>
@@ -2135,7 +2133,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B123" s="5" t="s">
         <v>46</v>
       </c>
@@ -2143,7 +2141,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B124" s="5" t="s">
         <v>46</v>
       </c>
@@ -2151,7 +2149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>71</v>
       </c>
@@ -2165,7 +2163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
         <v>13</v>
       </c>
@@ -2176,7 +2174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B127" s="5" t="s">
         <v>12</v>
       </c>
@@ -2187,7 +2185,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
         <v>13</v>
       </c>
@@ -2198,7 +2196,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B129" s="5" t="s">
         <v>12</v>
       </c>
@@ -2209,7 +2207,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
         <v>13</v>
       </c>
@@ -2220,7 +2218,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
         <v>111</v>
       </c>
@@ -2228,7 +2226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" s="2" t="s">
         <v>7</v>
       </c>
@@ -2236,7 +2234,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
         <v>59</v>
       </c>
@@ -2247,7 +2245,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="2:4">
+    <row r="134" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B134" s="5" t="s">
         <v>12</v>
       </c>
@@ -2258,7 +2256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="2:4">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" s="2" t="s">
         <v>13</v>
       </c>
@@ -2269,7 +2267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="2:4">
+    <row r="136" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B136" s="5" t="s">
         <v>12</v>
       </c>
@@ -2280,7 +2278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="2:4">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" s="2" t="s">
         <v>13</v>
       </c>
@@ -2291,7 +2289,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="2:4">
+    <row r="138" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B138" s="5" t="s">
         <v>12</v>
       </c>
@@ -2302,7 +2300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="2:4">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
         <v>13</v>
       </c>
@@ -2313,7 +2311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="2:4">
+    <row r="140" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B140" s="5" t="s">
         <v>12</v>
       </c>
@@ -2324,7 +2322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="2:4">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="2" t="s">
         <v>13</v>
       </c>
@@ -2335,7 +2333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="2:4">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="2" t="s">
         <v>26</v>
       </c>
@@ -2346,7 +2344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="2:4">
+    <row r="143" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B143" s="5" t="s">
         <v>12</v>
       </c>
@@ -2357,7 +2355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="2:4">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
         <v>13</v>
       </c>
@@ -2368,7 +2366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="2:4">
+    <row r="145" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B145" s="5" t="s">
         <v>12</v>
       </c>
@@ -2379,7 +2377,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="2:4">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" s="2" t="s">
         <v>13</v>
       </c>
@@ -2390,7 +2388,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="2:4">
+    <row r="147" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B147" s="5" t="s">
         <v>12</v>
       </c>
@@ -2401,7 +2399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="2:4">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="2" t="s">
         <v>13</v>
       </c>
@@ -2412,7 +2410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="2:4">
+    <row r="149" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B149" s="5" t="s">
         <v>12</v>
       </c>
@@ -2423,7 +2421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="2:4">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
         <v>13</v>
       </c>
@@ -2434,7 +2432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="2:4">
+    <row r="151" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B151" s="5" t="s">
         <v>12</v>
       </c>
@@ -2445,7 +2443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="2:4">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
         <v>13</v>
       </c>
@@ -2456,7 +2454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="2:4">
+    <row r="153" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B153" s="5" t="s">
         <v>12</v>
       </c>
@@ -2467,7 +2465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="2:4">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
         <v>13</v>
       </c>
@@ -2478,7 +2476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="2:4">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="2" t="s">
         <v>26</v>
       </c>
@@ -2489,7 +2487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="156" spans="2:4">
+    <row r="156" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B156" s="5" t="s">
         <v>12</v>
       </c>
@@ -2500,7 +2498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="2:4">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B157" s="2" t="s">
         <v>13</v>
       </c>
@@ -2511,7 +2509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="2:4">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B158" s="2" t="s">
         <v>26</v>
       </c>
@@ -2522,7 +2520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="2:4">
+    <row r="159" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B159" s="5" t="s">
         <v>12</v>
       </c>
@@ -2533,7 +2531,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="160" spans="2:4">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
         <v>13</v>
       </c>
@@ -2544,7 +2542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B161" s="5" t="s">
         <v>12</v>
       </c>
@@ -2555,7 +2553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B162" s="2" t="s">
         <v>13</v>
       </c>
@@ -2566,7 +2564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B163" s="5" t="s">
         <v>46</v>
       </c>
@@ -2574,7 +2572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B164" s="5" t="s">
         <v>46</v>
       </c>
@@ -2582,7 +2580,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>75</v>
       </c>
@@ -2596,7 +2594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B166" s="2" t="s">
         <v>13</v>
       </c>
@@ -2607,7 +2605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B167" s="5" t="s">
         <v>12</v>
       </c>
@@ -2618,7 +2616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B168" s="2" t="s">
         <v>13</v>
       </c>
@@ -2629,7 +2627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B169" s="5" t="s">
         <v>12</v>
       </c>
@@ -2640,7 +2638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B170" s="2" t="s">
         <v>13</v>
       </c>
@@ -2651,7 +2649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B171" s="5" t="s">
         <v>12</v>
       </c>
@@ -2662,7 +2660,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B172" s="2" t="s">
         <v>13</v>
       </c>
@@ -2673,7 +2671,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B173" s="2" t="s">
         <v>111</v>
       </c>
@@ -2682,7 +2680,7 @@
       </c>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B174" s="2" t="s">
         <v>7</v>
       </c>
@@ -2690,7 +2688,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B175" s="2" t="s">
         <v>59</v>
       </c>
@@ -2701,7 +2699,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B176" s="5" t="s">
         <v>12</v>
       </c>
@@ -2712,7 +2710,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="177" spans="2:4">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
         <v>13</v>
       </c>
@@ -2723,7 +2721,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="178" spans="2:4">
+    <row r="178" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B178" s="5" t="s">
         <v>12</v>
       </c>
@@ -2734,7 +2732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="2:4">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B179" s="2" t="s">
         <v>13</v>
       </c>
@@ -2745,7 +2743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="2:4">
+    <row r="180" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B180" s="5" t="s">
         <v>12</v>
       </c>
@@ -2756,7 +2754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="2:4">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B181" s="2" t="s">
         <v>13</v>
       </c>
@@ -2767,7 +2765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="2:4">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="2" t="s">
         <v>26</v>
       </c>
@@ -2778,7 +2776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="2:4">
+    <row r="183" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B183" s="5" t="s">
         <v>12</v>
       </c>
@@ -2789,7 +2787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="2:4">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B184" s="2" t="s">
         <v>13</v>
       </c>
@@ -2800,7 +2798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="2:4">
+    <row r="185" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B185" s="5" t="s">
         <v>12</v>
       </c>
@@ -2811,7 +2809,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="186" spans="2:4">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B186" s="2" t="s">
         <v>13</v>
       </c>
@@ -2822,7 +2820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="2:4">
+    <row r="187" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B187" s="5" t="s">
         <v>12</v>
       </c>
@@ -2833,7 +2831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="2:4">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B188" s="2" t="s">
         <v>13</v>
       </c>
@@ -2844,7 +2842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="2:4">
+    <row r="189" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B189" s="5" t="s">
         <v>12</v>
       </c>
@@ -2855,7 +2853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="2:4">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B190" s="2" t="s">
         <v>13</v>
       </c>
@@ -2866,7 +2864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="2:4">
+    <row r="191" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B191" s="5" t="s">
         <v>12</v>
       </c>
@@ -2877,7 +2875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="2:4">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B192" s="2" t="s">
         <v>13</v>
       </c>
@@ -2888,7 +2886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B193" s="5" t="s">
         <v>12</v>
       </c>
@@ -2899,7 +2897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B194" s="2" t="s">
         <v>13</v>
       </c>
@@ -2910,7 +2908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B195" s="2" t="s">
         <v>26</v>
       </c>
@@ -2921,7 +2919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B196" s="5" t="s">
         <v>12</v>
       </c>
@@ -2932,7 +2930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B197" s="2" t="s">
         <v>13</v>
       </c>
@@ -2943,7 +2941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B198" s="2" t="s">
         <v>26</v>
       </c>
@@ -2954,7 +2952,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B199" s="5" t="s">
         <v>12</v>
       </c>
@@ -2965,7 +2963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B200" s="2" t="s">
         <v>13</v>
       </c>
@@ -2976,7 +2974,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B201" s="5" t="s">
         <v>12</v>
       </c>
@@ -2987,7 +2985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B202" s="2" t="s">
         <v>13</v>
       </c>
@@ -2998,7 +2996,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B203" s="5" t="s">
         <v>46</v>
       </c>
@@ -3006,7 +3004,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B204" s="5" t="s">
         <v>46</v>
       </c>
@@ -3014,7 +3012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>76</v>
       </c>
@@ -3028,7 +3026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B206" s="2" t="s">
         <v>13</v>
       </c>
@@ -3039,7 +3037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B207" s="5" t="s">
         <v>12</v>
       </c>
@@ -3050,7 +3048,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B208" s="2" t="s">
         <v>13</v>
       </c>
@@ -3061,7 +3059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="209" spans="2:4">
+    <row r="209" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B209" s="5" t="s">
         <v>12</v>
       </c>
@@ -3072,7 +3070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="2:4">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B210" s="2" t="s">
         <v>13</v>
       </c>
@@ -3083,7 +3081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="2:4">
+    <row r="211" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B211" s="5" t="s">
         <v>12</v>
       </c>
@@ -3094,7 +3092,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="212" spans="2:4">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="2" t="s">
         <v>13</v>
       </c>
@@ -3105,7 +3103,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="213" spans="2:4">
+    <row r="213" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B213" s="5" t="s">
         <v>12</v>
       </c>
@@ -3116,7 +3114,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="214" spans="2:4">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B214" s="2" t="s">
         <v>13</v>
       </c>
@@ -3127,7 +3125,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="215" spans="2:4">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B215" s="2" t="s">
         <v>111</v>
       </c>
@@ -3135,7 +3133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="2:4">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B216" s="2" t="s">
         <v>7</v>
       </c>
@@ -3143,7 +3141,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="217" spans="2:4">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B217" s="2" t="s">
         <v>59</v>
       </c>
@@ -3154,7 +3152,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="218" spans="2:4">
+    <row r="218" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B218" s="5" t="s">
         <v>12</v>
       </c>
@@ -3165,7 +3163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="2:4">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="2" t="s">
         <v>13</v>
       </c>
@@ -3176,7 +3174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="2:4">
+    <row r="220" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B220" s="5" t="s">
         <v>12</v>
       </c>
@@ -3187,7 +3185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="2:4">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B221" s="2" t="s">
         <v>13</v>
       </c>
@@ -3198,7 +3196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="2:4">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B222" s="2" t="s">
         <v>26</v>
       </c>
@@ -3209,7 +3207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="2:4">
+    <row r="223" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B223" s="5" t="s">
         <v>12</v>
       </c>
@@ -3220,7 +3218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="2:4">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B224" s="2" t="s">
         <v>13</v>
       </c>
@@ -3231,7 +3229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="2:4">
+    <row r="225" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B225" s="5" t="s">
         <v>12</v>
       </c>
@@ -3242,7 +3240,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="226" spans="2:4">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="2" t="s">
         <v>13</v>
       </c>
@@ -3253,7 +3251,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="227" spans="2:4">
+    <row r="227" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B227" s="5" t="s">
         <v>12</v>
       </c>
@@ -3264,7 +3262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="2:4">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B228" s="2" t="s">
         <v>13</v>
       </c>
@@ -3275,7 +3273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="2:4">
+    <row r="229" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B229" s="5" t="s">
         <v>12</v>
       </c>
@@ -3286,7 +3284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="2:4">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B230" s="2" t="s">
         <v>13</v>
       </c>
@@ -3297,7 +3295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="2:4">
+    <row r="231" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B231" s="5" t="s">
         <v>12</v>
       </c>
@@ -3308,7 +3306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="232" spans="2:4">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B232" s="2" t="s">
         <v>13</v>
       </c>
@@ -3319,7 +3317,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="2:4">
+    <row r="233" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B233" s="5" t="s">
         <v>12</v>
       </c>
@@ -3330,7 +3328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="2:4">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B234" s="2" t="s">
         <v>13</v>
       </c>
@@ -3341,7 +3339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="2:4">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B235" s="2" t="s">
         <v>26</v>
       </c>
@@ -3352,7 +3350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="236" spans="2:4">
+    <row r="236" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B236" s="5" t="s">
         <v>12</v>
       </c>
@@ -3363,7 +3361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="2:4">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B237" s="2" t="s">
         <v>13</v>
       </c>
@@ -3374,7 +3372,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="2:4">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B238" s="2" t="s">
         <v>26</v>
       </c>
@@ -3385,7 +3383,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="239" spans="2:4">
+    <row r="239" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B239" s="5" t="s">
         <v>12</v>
       </c>
@@ -3396,7 +3394,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="240" spans="2:4">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="2" t="s">
         <v>13</v>
       </c>
@@ -3407,7 +3405,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B241" s="5" t="s">
         <v>12</v>
       </c>
@@ -3418,7 +3416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B242" s="2" t="s">
         <v>13</v>
       </c>
@@ -3429,7 +3427,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B243" s="5" t="s">
         <v>46</v>
       </c>
@@ -3437,7 +3435,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B244" s="5" t="s">
         <v>46</v>
       </c>
@@ -3445,7 +3443,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>80</v>
       </c>
@@ -3459,7 +3457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B246" s="2" t="s">
         <v>13</v>
       </c>
@@ -3470,7 +3468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B247" s="5" t="s">
         <v>12</v>
       </c>
@@ -3481,7 +3479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B248" s="2" t="s">
         <v>13</v>
       </c>
@@ -3492,7 +3490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B249" s="5" t="s">
         <v>12</v>
       </c>
@@ -3503,7 +3501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B250" s="2" t="s">
         <v>13</v>
       </c>
@@ -3514,7 +3512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B251" s="5" t="s">
         <v>12</v>
       </c>
@@ -3525,7 +3523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B252" s="2" t="s">
         <v>13</v>
       </c>
@@ -3536,7 +3534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B253" s="5" t="s">
         <v>12</v>
       </c>
@@ -3547,7 +3545,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B254" s="2" t="s">
         <v>13</v>
       </c>
@@ -3558,7 +3556,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B255" s="5" t="s">
         <v>12</v>
       </c>
@@ -3569,7 +3567,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B256" s="2" t="s">
         <v>13</v>
       </c>
@@ -3580,7 +3578,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="257" spans="2:4">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B257" s="2" t="s">
         <v>111</v>
       </c>
@@ -3588,7 +3586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="2:4">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B258" s="2" t="s">
         <v>7</v>
       </c>
@@ -3596,7 +3594,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="2:4">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B259" s="2" t="s">
         <v>59</v>
       </c>
@@ -3607,7 +3605,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="260" spans="2:4">
+    <row r="260" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B260" s="5" t="s">
         <v>12</v>
       </c>
@@ -3618,7 +3616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="2:4">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="2" t="s">
         <v>13</v>
       </c>
@@ -3629,7 +3627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="2:4">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B262" s="2" t="s">
         <v>26</v>
       </c>
@@ -3640,7 +3638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="2:4">
+    <row r="263" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B263" s="5" t="s">
         <v>12</v>
       </c>
@@ -3651,7 +3649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="2:4">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B264" s="2" t="s">
         <v>13</v>
       </c>
@@ -3662,7 +3660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="265" spans="2:4">
+    <row r="265" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B265" s="5" t="s">
         <v>12</v>
       </c>
@@ -3673,7 +3671,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="266" spans="2:4">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B266" s="2" t="s">
         <v>13</v>
       </c>
@@ -3684,7 +3682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="267" spans="2:4">
+    <row r="267" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B267" s="5" t="s">
         <v>12</v>
       </c>
@@ -3695,7 +3693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="2:4">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="2" t="s">
         <v>13</v>
       </c>
@@ -3706,7 +3704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="2:4">
+    <row r="269" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B269" s="5" t="s">
         <v>12</v>
       </c>
@@ -3717,7 +3715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="270" spans="2:4">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B270" s="2" t="s">
         <v>13</v>
       </c>
@@ -3728,7 +3726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="2:4">
+    <row r="271" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B271" s="5" t="s">
         <v>12</v>
       </c>
@@ -3739,7 +3737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="2:4">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B272" s="2" t="s">
         <v>13</v>
       </c>
@@ -3750,7 +3748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B273" s="5" t="s">
         <v>12</v>
       </c>
@@ -3761,7 +3759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B274" s="2" t="s">
         <v>13</v>
       </c>
@@ -3772,7 +3770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B275" s="2" t="s">
         <v>26</v>
       </c>
@@ -3783,7 +3781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B276" s="5" t="s">
         <v>12</v>
       </c>
@@ -3794,7 +3792,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B277" s="2" t="s">
         <v>13</v>
       </c>
@@ -3805,7 +3803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B278" s="2" t="s">
         <v>26</v>
       </c>
@@ -3816,7 +3814,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B279" s="5" t="s">
         <v>12</v>
       </c>
@@ -3827,7 +3825,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B280" s="2" t="s">
         <v>13</v>
       </c>
@@ -3838,7 +3836,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B281" s="5" t="s">
         <v>12</v>
       </c>
@@ -3849,7 +3847,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B282" s="2" t="s">
         <v>13</v>
       </c>
@@ -3860,7 +3858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B283" s="5" t="s">
         <v>46</v>
       </c>
@@ -3868,7 +3866,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B284" s="5" t="s">
         <v>46</v>
       </c>
@@ -3876,7 +3874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>116</v>
       </c>
@@ -3890,7 +3888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B286" s="2" t="s">
         <v>13</v>
       </c>
@@ -3901,7 +3899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B287" s="5" t="s">
         <v>12</v>
       </c>
@@ -3912,7 +3910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B288" s="2" t="s">
         <v>13</v>
       </c>
@@ -3923,7 +3921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="2:4">
+    <row r="289" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B289" s="5" t="s">
         <v>12</v>
       </c>
@@ -3934,7 +3932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="2:4">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B290" s="2" t="s">
         <v>13</v>
       </c>
@@ -3945,7 +3943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="2:4">
+    <row r="291" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B291" s="5" t="s">
         <v>12</v>
       </c>
@@ -3956,7 +3954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="292" spans="2:4">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B292" s="2" t="s">
         <v>13</v>
       </c>
@@ -3967,7 +3965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="2:4">
+    <row r="293" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B293" s="5" t="s">
         <v>12</v>
       </c>
@@ -3978,7 +3976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="294" spans="2:4">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B294" s="2" t="s">
         <v>13</v>
       </c>
@@ -3989,7 +3987,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="295" spans="2:4">
+    <row r="295" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B295" s="5" t="s">
         <v>12</v>
       </c>
@@ -4000,7 +3998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="2:4">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B296" s="2" t="s">
         <v>13</v>
       </c>
@@ -4011,7 +4009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="2:4">
+    <row r="297" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B297" s="5" t="s">
         <v>12</v>
       </c>
@@ -4022,7 +4020,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="298" spans="2:4">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B298" s="2" t="s">
         <v>13</v>
       </c>
@@ -4033,7 +4031,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="299" spans="2:4">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B299" s="2" t="s">
         <v>111</v>
       </c>
@@ -4041,7 +4039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="2:4">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B300" s="2" t="s">
         <v>7</v>
       </c>
@@ -4049,15 +4047,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="301" spans="2:4">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B301" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="302" spans="2:4">
+      <c r="D301" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="2" t="s">
         <v>26</v>
       </c>
@@ -4068,7 +4069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="303" spans="2:4">
+    <row r="303" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B303" s="5" t="s">
         <v>12</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="2:4">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B304" s="2" t="s">
         <v>13</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="2:4">
+    <row r="305" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B305" s="5" t="s">
         <v>12</v>
       </c>
@@ -4101,7 +4102,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="306" spans="2:4">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B306" s="2" t="s">
         <v>13</v>
       </c>
@@ -4112,7 +4113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="307" spans="2:4">
+    <row r="307" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B307" s="5" t="s">
         <v>12</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="2:4">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B308" s="2" t="s">
         <v>13</v>
       </c>
@@ -4134,7 +4135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="2:4">
+    <row r="309" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B309" s="5" t="s">
         <v>12</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="310" spans="2:4">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B310" s="2" t="s">
         <v>13</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="311" spans="2:4">
+    <row r="311" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B311" s="5" t="s">
         <v>12</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="312" spans="2:4">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B312" s="2" t="s">
         <v>13</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="313" spans="2:4">
+    <row r="313" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B313" s="5" t="s">
         <v>12</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="314" spans="2:4">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B314" s="2" t="s">
         <v>13</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="2:4">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B315" s="2" t="s">
         <v>26</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="316" spans="2:4">
+    <row r="316" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B316" s="5" t="s">
         <v>12</v>
       </c>
@@ -4222,7 +4223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="317" spans="2:4">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B317" s="2" t="s">
         <v>13</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="318" spans="2:4">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B318" s="2" t="s">
         <v>26</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="319" spans="2:4">
+    <row r="319" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B319" s="5" t="s">
         <v>12</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="2:4">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B320" s="2" t="s">
         <v>13</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B321" s="5" t="s">
         <v>12</v>
       </c>
@@ -4277,7 +4278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B322" s="2" t="s">
         <v>13</v>
       </c>
@@ -4288,7 +4289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B323" s="5" t="s">
         <v>46</v>
       </c>
@@ -4296,7 +4297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B324" s="5" t="s">
         <v>46</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>112</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B326" s="2" t="s">
         <v>13</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B327" s="5" t="s">
         <v>12</v>
       </c>
@@ -4340,7 +4341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B328" s="2" t="s">
         <v>13</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B329" s="5" t="s">
         <v>12</v>
       </c>
@@ -4362,7 +4363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B330" s="2" t="s">
         <v>13</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B331" s="5" t="s">
         <v>12</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B332" s="2" t="s">
         <v>13</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B333" s="5" t="s">
         <v>12</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B334" s="2" t="s">
         <v>13</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B335" s="5" t="s">
         <v>12</v>
       </c>
@@ -4428,7 +4429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B336" s="2" t="s">
         <v>13</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="2:4">
+    <row r="337" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B337" s="5" t="s">
         <v>12</v>
       </c>
@@ -4450,7 +4451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="2:4">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B338" s="2" t="s">
         <v>13</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="2:4">
+    <row r="339" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B339" s="5" t="s">
         <v>12</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="2:4">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B340" s="2" t="s">
         <v>13</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="2:4">
+    <row r="341" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B341" s="5" t="s">
         <v>12</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="342" spans="2:4">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B342" s="2" t="s">
         <v>13</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="343" spans="2:4">
+    <row r="343" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B343" s="5" t="s">
         <v>12</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="2:4">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B344" s="2" t="s">
         <v>13</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345" spans="2:4">
+    <row r="345" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B345" s="5" t="s">
         <v>12</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="2:4">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B346" s="2" t="s">
         <v>13</v>
       </c>
@@ -4549,7 +4550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="347" spans="2:4">
+    <row r="347" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B347" s="5" t="s">
         <v>12</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="348" spans="2:4">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B348" s="2" t="s">
         <v>13</v>
       </c>
@@ -4571,7 +4572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="349" spans="2:4">
+    <row r="349" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B349" s="5" t="s">
         <v>12</v>
       </c>
@@ -4582,7 +4583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="350" spans="2:4">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="2" t="s">
         <v>13</v>
       </c>
@@ -4593,7 +4594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="351" spans="2:4">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B351" s="2" t="s">
         <v>26</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="352" spans="2:4">
+    <row r="352" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B352" s="5" t="s">
         <v>12</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B353" s="2" t="s">
         <v>13</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B354" s="2" t="s">
         <v>26</v>
       </c>
@@ -4637,7 +4638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B355" s="5" t="s">
         <v>12</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B356" s="2" t="s">
         <v>13</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B357" s="5" t="s">
         <v>12</v>
       </c>
@@ -4670,7 +4671,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B358" s="2" t="s">
         <v>13</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B359" s="5" t="s">
         <v>46</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B360" s="5" t="s">
         <v>46</v>
       </c>
@@ -4697,7 +4698,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B361" s="2" t="s">
         <v>7</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B362" s="2" t="s">
         <v>59</v>
       </c>
@@ -4716,7 +4717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>86</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B364" s="2" t="s">
         <v>13</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B365" s="5" t="s">
         <v>12</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B366" s="2" t="s">
         <v>13</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B367" s="5" t="s">
         <v>12</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B368" s="2" t="s">
         <v>13</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="369" spans="2:4">
+    <row r="369" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B369" s="5" t="s">
         <v>12</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="2:4">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B370" s="2" t="s">
         <v>13</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="371" spans="2:4">
+    <row r="371" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B371" s="5" t="s">
         <v>12</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="372" spans="2:4">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B372" s="2" t="s">
         <v>13</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="373" spans="2:4">
+    <row r="373" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B373" s="5" t="s">
         <v>12</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="2:4">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B374" s="2" t="s">
         <v>13</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="2:4">
+    <row r="375" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B375" s="5" t="s">
         <v>12</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="376" spans="2:4">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B376" s="2" t="s">
         <v>13</v>
       </c>
@@ -4873,7 +4874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="2:4">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B377" s="2" t="s">
         <v>26</v>
       </c>
@@ -4884,7 +4885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="378" spans="2:4">
+    <row r="378" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B378" s="5" t="s">
         <v>12</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="379" spans="2:4">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B379" s="2" t="s">
         <v>13</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="380" spans="2:4">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B380" s="2" t="s">
         <v>111</v>
       </c>
@@ -4914,7 +4915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="381" spans="2:4">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B381" s="2" t="s">
         <v>7</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="382" spans="2:4">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B382" s="2" t="s">
         <v>59</v>
       </c>
@@ -4933,7 +4934,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="383" spans="2:4">
+    <row r="383" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B383" s="5" t="s">
         <v>12</v>
       </c>
@@ -4944,7 +4945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="384" spans="2:4">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B384" s="2" t="s">
         <v>13</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="385" spans="2:4">
+    <row r="385" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B385" s="5" t="s">
         <v>12</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" spans="2:4">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B386" s="2" t="s">
         <v>13</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="387" spans="2:4">
+    <row r="387" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B387" s="5" t="s">
         <v>12</v>
       </c>
@@ -4988,7 +4989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="2:4">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B388" s="2" t="s">
         <v>13</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="389" spans="2:4">
+    <row r="389" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B389" s="5" t="s">
         <v>12</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="390" spans="2:4">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B390" s="2" t="s">
         <v>13</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="391" spans="2:4">
+    <row r="391" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B391" s="5" t="s">
         <v>12</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="392" spans="2:4">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="2" t="s">
         <v>13</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="2:4">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B393" s="2" t="s">
         <v>26</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="394" spans="2:4">
+    <row r="394" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B394" s="5" t="s">
         <v>12</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="395" spans="2:4">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B395" s="2" t="s">
         <v>13</v>
       </c>
@@ -5076,7 +5077,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="396" spans="2:4">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B396" s="2" t="s">
         <v>26</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="397" spans="2:4">
+    <row r="397" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B397" s="5" t="s">
         <v>12</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="398" spans="2:4">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B398" s="2" t="s">
         <v>13</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="399" spans="2:4">
+    <row r="399" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B399" s="5" t="s">
         <v>12</v>
       </c>
@@ -5120,7 +5121,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="400" spans="2:4">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B400" s="2" t="s">
         <v>13</v>
       </c>
@@ -5131,7 +5132,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B401" s="5" t="s">
         <v>46</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B402" s="5" t="s">
         <v>46</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
         <v>91</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B404" s="2" t="s">
         <v>13</v>
       </c>
@@ -5172,7 +5173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B405" s="5" t="s">
         <v>12</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B406" s="2" t="s">
         <v>13</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B407" s="5" t="s">
         <v>12</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B408" s="2" t="s">
         <v>13</v>
       </c>
@@ -5216,7 +5217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B409" s="5" t="s">
         <v>12</v>
       </c>
@@ -5227,7 +5228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B410" s="2" t="s">
         <v>13</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B411" s="5" t="s">
         <v>12</v>
       </c>
@@ -5249,7 +5250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B412" s="2" t="s">
         <v>13</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B413" s="5" t="s">
         <v>12</v>
       </c>
@@ -5271,7 +5272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B414" s="2" t="s">
         <v>13</v>
       </c>
@@ -5282,7 +5283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B415" s="5" t="s">
         <v>12</v>
       </c>
@@ -5293,7 +5294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B416" s="2" t="s">
         <v>13</v>
       </c>
@@ -5304,7 +5305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="417" spans="2:4">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B417" s="2" t="s">
         <v>26</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="418" spans="2:4">
+    <row r="418" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B418" s="5" t="s">
         <v>12</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="419" spans="2:4">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B419" s="2" t="s">
         <v>13</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="420" spans="2:4">
+    <row r="420" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B420" s="5" t="s">
         <v>12</v>
       </c>
@@ -5348,7 +5349,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="421" spans="2:4">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B421" s="2" t="s">
         <v>13</v>
       </c>
@@ -5359,7 +5360,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="422" spans="2:4">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B422" s="2" t="s">
         <v>111</v>
       </c>
@@ -5368,7 +5369,7 @@
       </c>
       <c r="D422" s="3"/>
     </row>
-    <row r="423" spans="2:4">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B423" s="2" t="s">
         <v>7</v>
       </c>
@@ -5376,7 +5377,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="424" spans="2:4">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B424" s="2" t="s">
         <v>59</v>
       </c>
@@ -5387,7 +5388,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="425" spans="2:4">
+    <row r="425" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B425" s="5" t="s">
         <v>12</v>
       </c>
@@ -5398,7 +5399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="426" spans="2:4">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B426" s="2" t="s">
         <v>13</v>
       </c>
@@ -5409,7 +5410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="427" spans="2:4">
+    <row r="427" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B427" s="5" t="s">
         <v>12</v>
       </c>
@@ -5420,7 +5421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="428" spans="2:4">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B428" s="2" t="s">
         <v>13</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="429" spans="2:4">
+    <row r="429" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B429" s="5" t="s">
         <v>12</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="430" spans="2:4">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B430" s="2" t="s">
         <v>13</v>
       </c>
@@ -5453,7 +5454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="431" spans="2:4">
+    <row r="431" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B431" s="5" t="s">
         <v>12</v>
       </c>
@@ -5464,7 +5465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="432" spans="2:4">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B432" s="2" t="s">
         <v>13</v>
       </c>
@@ -5475,7 +5476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B433" s="2" t="s">
         <v>26</v>
       </c>
@@ -5486,7 +5487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B434" s="5" t="s">
         <v>12</v>
       </c>
@@ -5497,7 +5498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B435" s="2" t="s">
         <v>13</v>
       </c>
@@ -5508,7 +5509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B436" s="2" t="s">
         <v>26</v>
       </c>
@@ -5519,7 +5520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B437" s="5" t="s">
         <v>12</v>
       </c>
@@ -5530,7 +5531,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B438" s="2" t="s">
         <v>13</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B439" s="5" t="s">
         <v>12</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B440" s="2" t="s">
         <v>13</v>
       </c>
@@ -5563,7 +5564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B441" s="5" t="s">
         <v>46</v>
       </c>
@@ -5571,7 +5572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B442" s="5" t="s">
         <v>46</v>
       </c>
@@ -5579,7 +5580,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
         <v>117</v>
       </c>
@@ -5593,7 +5594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B444" s="2" t="s">
         <v>13</v>
       </c>
@@ -5604,7 +5605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B445" s="5" t="s">
         <v>12</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B446" s="2" t="s">
         <v>13</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B447" s="5" t="s">
         <v>12</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B448" s="2" t="s">
         <v>13</v>
       </c>
@@ -5648,7 +5649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="449" spans="2:4">
+    <row r="449" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B449" s="5" t="s">
         <v>12</v>
       </c>
@@ -5659,7 +5660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="450" spans="2:4">
+    <row r="450" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B450" s="2" t="s">
         <v>13</v>
       </c>
@@ -5670,7 +5671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="451" spans="2:4">
+    <row r="451" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B451" s="5" t="s">
         <v>12</v>
       </c>
@@ -5681,7 +5682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="452" spans="2:4">
+    <row r="452" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B452" s="2" t="s">
         <v>13</v>
       </c>
@@ -5692,7 +5693,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="453" spans="2:4">
+    <row r="453" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B453" s="5" t="s">
         <v>12</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="2:4">
+    <row r="454" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B454" s="2" t="s">
         <v>13</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="2:4">
+    <row r="455" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B455" s="5" t="s">
         <v>12</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="456" spans="2:4">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" s="2" t="s">
         <v>13</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="457" spans="2:4">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B457" s="2" t="s">
         <v>26</v>
       </c>
@@ -5747,7 +5748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="458" spans="2:4">
+    <row r="458" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B458" s="5" t="s">
         <v>12</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="2:4">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B459" s="2" t="s">
         <v>13</v>
       </c>
@@ -5769,7 +5770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="2:4">
+    <row r="460" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B460" s="5" t="s">
         <v>12</v>
       </c>
@@ -5780,7 +5781,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="461" spans="2:4">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B461" s="2" t="s">
         <v>13</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="462" spans="2:4">
+    <row r="462" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B462" s="5" t="s">
         <v>12</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="463" spans="2:4">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" s="2" t="s">
         <v>13</v>
       </c>
@@ -5813,7 +5814,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="464" spans="2:4">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B464" s="2" t="s">
         <v>111</v>
       </c>
@@ -5821,7 +5822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="465" spans="2:4">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B465" s="2" t="s">
         <v>7</v>
       </c>
@@ -5829,7 +5830,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="466" spans="2:4">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B466" s="2" t="s">
         <v>59</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="467" spans="2:4">
+    <row r="467" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B467" s="5" t="s">
         <v>12</v>
       </c>
@@ -5851,7 +5852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="468" spans="2:4">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B468" s="2" t="s">
         <v>13</v>
       </c>
@@ -5862,7 +5863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="469" spans="2:4">
+    <row r="469" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B469" s="5" t="s">
         <v>12</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="470" spans="2:4">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" s="2" t="s">
         <v>13</v>
       </c>
@@ -5884,7 +5885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="471" spans="2:4">
+    <row r="471" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B471" s="5" t="s">
         <v>12</v>
       </c>
@@ -5895,7 +5896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="472" spans="2:4">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B472" s="2" t="s">
         <v>13</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="473" spans="2:4">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B473" s="2" t="s">
         <v>26</v>
       </c>
@@ -5917,7 +5918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="474" spans="2:4">
+    <row r="474" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B474" s="5" t="s">
         <v>12</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="475" spans="2:4">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B475" s="2" t="s">
         <v>13</v>
       </c>
@@ -5939,7 +5940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="476" spans="2:4">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B476" s="2" t="s">
         <v>26</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="477" spans="2:4">
+    <row r="477" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B477" s="5" t="s">
         <v>12</v>
       </c>
@@ -5961,7 +5962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="478" spans="2:4">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B478" s="2" t="s">
         <v>13</v>
       </c>
@@ -5972,7 +5973,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="479" spans="2:4">
+    <row r="479" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B479" s="5" t="s">
         <v>12</v>
       </c>
@@ -5983,7 +5984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="480" spans="2:4">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B480" s="2" t="s">
         <v>13</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B481" s="5" t="s">
         <v>46</v>
       </c>
@@ -6002,7 +6003,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B482" s="5" t="s">
         <v>46</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
         <v>118</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B484" s="2" t="s">
         <v>13</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B485" s="5" t="s">
         <v>12</v>
       </c>
@@ -6046,7 +6047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B486" s="2" t="s">
         <v>13</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B487" s="5" t="s">
         <v>12</v>
       </c>
@@ -6068,7 +6069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B488" s="2" t="s">
         <v>13</v>
       </c>
@@ -6079,7 +6080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B489" s="5" t="s">
         <v>12</v>
       </c>
@@ -6090,7 +6091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B490" s="2" t="s">
         <v>13</v>
       </c>
@@ -6101,7 +6102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B491" s="5" t="s">
         <v>12</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B492" s="2" t="s">
         <v>13</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B493" s="5" t="s">
         <v>12</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B494" s="2" t="s">
         <v>13</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B495" s="5" t="s">
         <v>12</v>
       </c>
@@ -6156,7 +6157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B496" s="2" t="s">
         <v>13</v>
       </c>
@@ -6167,7 +6168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="497" spans="2:4">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B497" s="2" t="s">
         <v>26</v>
       </c>
@@ -6178,7 +6179,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="498" spans="2:4">
+    <row r="498" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B498" s="5" t="s">
         <v>12</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="499" spans="2:4">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B499" s="2" t="s">
         <v>13</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="500" spans="2:4">
+    <row r="500" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B500" s="5" t="s">
         <v>12</v>
       </c>
@@ -6211,7 +6212,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="501" spans="2:4">
+    <row r="501" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B501" s="2" t="s">
         <v>13</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="502" spans="2:4">
+    <row r="502" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B502" s="5" t="s">
         <v>12</v>
       </c>
@@ -6233,7 +6234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="503" spans="2:4">
+    <row r="503" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B503" s="2" t="s">
         <v>13</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="504" spans="2:4">
+    <row r="504" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B504" s="5" t="s">
         <v>12</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="505" spans="2:4">
+    <row r="505" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B505" s="2" t="s">
         <v>13</v>
       </c>
@@ -6266,7 +6267,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="506" spans="2:4">
+    <row r="506" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B506" s="2" t="s">
         <v>111</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="507" spans="2:4">
+    <row r="507" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B507" s="2" t="s">
         <v>7</v>
       </c>
@@ -6282,7 +6283,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="508" spans="2:4">
+    <row r="508" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B508" s="2" t="s">
         <v>59</v>
       </c>
@@ -6293,7 +6294,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="509" spans="2:4">
+    <row r="509" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B509" s="5" t="s">
         <v>12</v>
       </c>
@@ -6304,7 +6305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="510" spans="2:4">
+    <row r="510" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B510" s="2" t="s">
         <v>13</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="511" spans="2:4">
+    <row r="511" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B511" s="5" t="s">
         <v>12</v>
       </c>
@@ -6326,7 +6327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="512" spans="2:4">
+    <row r="512" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B512" s="2" t="s">
         <v>13</v>
       </c>
@@ -6337,7 +6338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B513" s="2" t="s">
         <v>26</v>
       </c>
@@ -6348,7 +6349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B514" s="5" t="s">
         <v>12</v>
       </c>
@@ -6359,7 +6360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B515" s="2" t="s">
         <v>13</v>
       </c>
@@ -6370,7 +6371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B516" s="2" t="s">
         <v>26</v>
       </c>
@@ -6381,7 +6382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B517" s="5" t="s">
         <v>12</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B518" s="2" t="s">
         <v>13</v>
       </c>
@@ -6403,7 +6404,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B519" s="5" t="s">
         <v>12</v>
       </c>
@@ -6414,7 +6415,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B520" s="2" t="s">
         <v>13</v>
       </c>
@@ -6425,7 +6426,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B521" s="5" t="s">
         <v>46</v>
       </c>
@@ -6433,7 +6434,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B522" s="5" t="s">
         <v>46</v>
       </c>
@@ -6441,7 +6442,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
         <v>95</v>
       </c>
@@ -6455,7 +6456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B524" s="2" t="s">
         <v>13</v>
       </c>
@@ -6466,7 +6467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B525" s="5" t="s">
         <v>12</v>
       </c>
@@ -6477,7 +6478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B526" s="2" t="s">
         <v>13</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B527" s="5" t="s">
         <v>12</v>
       </c>
@@ -6499,7 +6500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B528" s="2" t="s">
         <v>13</v>
       </c>
@@ -6510,7 +6511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="529" spans="2:4">
+    <row r="529" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B529" s="5" t="s">
         <v>12</v>
       </c>
@@ -6521,7 +6522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="530" spans="2:4">
+    <row r="530" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B530" s="2" t="s">
         <v>13</v>
       </c>
@@ -6532,7 +6533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="531" spans="2:4">
+    <row r="531" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B531" s="5" t="s">
         <v>12</v>
       </c>
@@ -6543,7 +6544,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="532" spans="2:4">
+    <row r="532" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B532" s="2" t="s">
         <v>13</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="533" spans="2:4">
+    <row r="533" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B533" s="5" t="s">
         <v>12</v>
       </c>
@@ -6565,7 +6566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="534" spans="2:4">
+    <row r="534" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B534" s="2" t="s">
         <v>13</v>
       </c>
@@ -6576,7 +6577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="535" spans="2:4">
+    <row r="535" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B535" s="5" t="s">
         <v>12</v>
       </c>
@@ -6587,7 +6588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="536" spans="2:4">
+    <row r="536" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B536" s="2" t="s">
         <v>13</v>
       </c>
@@ -6598,7 +6599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="537" spans="2:4">
+    <row r="537" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B537" s="2" t="s">
         <v>26</v>
       </c>
@@ -6609,7 +6610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="538" spans="2:4">
+    <row r="538" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B538" s="5" t="s">
         <v>12</v>
       </c>
@@ -6620,7 +6621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="539" spans="2:4">
+    <row r="539" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B539" s="2" t="s">
         <v>13</v>
       </c>
@@ -6631,7 +6632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="540" spans="2:4">
+    <row r="540" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B540" s="5" t="s">
         <v>12</v>
       </c>
@@ -6642,7 +6643,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="541" spans="2:4">
+    <row r="541" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B541" s="2" t="s">
         <v>13</v>
       </c>
@@ -6653,7 +6654,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="542" spans="2:4">
+    <row r="542" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B542" s="5" t="s">
         <v>12</v>
       </c>
@@ -6664,7 +6665,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="543" spans="2:4">
+    <row r="543" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B543" s="2" t="s">
         <v>13</v>
       </c>
@@ -6675,7 +6676,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="544" spans="2:4">
+    <row r="544" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B544" s="5" t="s">
         <v>12</v>
       </c>
@@ -6686,7 +6687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="545" spans="2:4">
+    <row r="545" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B545" s="2" t="s">
         <v>13</v>
       </c>
@@ -6697,7 +6698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="546" spans="2:4">
+    <row r="546" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B546" s="5" t="s">
         <v>12</v>
       </c>
@@ -6708,7 +6709,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="547" spans="2:4">
+    <row r="547" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B547" s="2" t="s">
         <v>13</v>
       </c>
@@ -6719,7 +6720,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="548" spans="2:4">
+    <row r="548" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B548" s="2" t="s">
         <v>111</v>
       </c>
@@ -6727,7 +6728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="549" spans="2:4">
+    <row r="549" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B549" s="2" t="s">
         <v>7</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="550" spans="2:4">
+    <row r="550" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B550" s="2" t="s">
         <v>59</v>
       </c>
@@ -6746,7 +6747,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="551" spans="2:4">
+    <row r="551" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B551" s="5" t="s">
         <v>12</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="552" spans="2:4">
+    <row r="552" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B552" s="2" t="s">
         <v>13</v>
       </c>
@@ -6768,7 +6769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="553" spans="2:4">
+    <row r="553" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B553" s="2" t="s">
         <v>26</v>
       </c>
@@ -6779,7 +6780,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="554" spans="2:4">
+    <row r="554" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B554" s="5" t="s">
         <v>12</v>
       </c>
@@ -6790,7 +6791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="555" spans="2:4">
+    <row r="555" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B555" s="2" t="s">
         <v>13</v>
       </c>
@@ -6801,7 +6802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="556" spans="2:4">
+    <row r="556" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B556" s="2" t="s">
         <v>26</v>
       </c>
@@ -6812,7 +6813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="557" spans="2:4">
+    <row r="557" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B557" s="5" t="s">
         <v>12</v>
       </c>
@@ -6823,7 +6824,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="558" spans="2:4">
+    <row r="558" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B558" s="2" t="s">
         <v>13</v>
       </c>
@@ -6834,7 +6835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="559" spans="2:4">
+    <row r="559" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B559" s="5" t="s">
         <v>12</v>
       </c>
@@ -6845,7 +6846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="560" spans="2:4">
+    <row r="560" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B560" s="2" t="s">
         <v>13</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B561" s="5" t="s">
         <v>46</v>
       </c>
@@ -6864,7 +6865,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B562" s="5" t="s">
         <v>46</v>
       </c>
@@ -6872,7 +6873,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="s">
         <v>99</v>
       </c>
@@ -6886,7 +6887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B564" s="2" t="s">
         <v>13</v>
       </c>
@@ -6897,7 +6898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B565" s="5" t="s">
         <v>12</v>
       </c>
@@ -6908,7 +6909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B566" s="2" t="s">
         <v>13</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B567" s="5" t="s">
         <v>12</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B568" s="2" t="s">
         <v>13</v>
       </c>
@@ -6941,7 +6942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B569" s="5" t="s">
         <v>12</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B570" s="2" t="s">
         <v>13</v>
       </c>
@@ -6963,7 +6964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B571" s="5" t="s">
         <v>12</v>
       </c>
@@ -6974,7 +6975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B572" s="2" t="s">
         <v>13</v>
       </c>
@@ -6985,7 +6986,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B573" s="5" t="s">
         <v>12</v>
       </c>
@@ -6996,7 +6997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B574" s="2" t="s">
         <v>13</v>
       </c>
@@ -7007,7 +7008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B575" s="5" t="s">
         <v>12</v>
       </c>
@@ -7018,7 +7019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B576" s="2" t="s">
         <v>13</v>
       </c>
@@ -7029,7 +7030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="577" spans="2:4">
+    <row r="577" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B577" s="2" t="s">
         <v>26</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="578" spans="2:4">
+    <row r="578" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B578" s="5" t="s">
         <v>12</v>
       </c>
@@ -7051,7 +7052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="579" spans="2:4">
+    <row r="579" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B579" s="2" t="s">
         <v>13</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="580" spans="2:4">
+    <row r="580" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B580" s="5" t="s">
         <v>12</v>
       </c>
@@ -7073,7 +7074,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="581" spans="2:4">
+    <row r="581" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B581" s="2" t="s">
         <v>13</v>
       </c>
@@ -7084,7 +7085,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="582" spans="2:4">
+    <row r="582" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B582" s="5" t="s">
         <v>12</v>
       </c>
@@ -7095,7 +7096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="583" spans="2:4">
+    <row r="583" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B583" s="2" t="s">
         <v>13</v>
       </c>
@@ -7106,7 +7107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="584" spans="2:4">
+    <row r="584" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B584" s="5" t="s">
         <v>12</v>
       </c>
@@ -7117,7 +7118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="585" spans="2:4">
+    <row r="585" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B585" s="2" t="s">
         <v>13</v>
       </c>
@@ -7128,7 +7129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="586" spans="2:4">
+    <row r="586" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B586" s="5" t="s">
         <v>12</v>
       </c>
@@ -7139,7 +7140,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="587" spans="2:4">
+    <row r="587" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B587" s="2" t="s">
         <v>13</v>
       </c>
@@ -7150,7 +7151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="588" spans="2:4">
+    <row r="588" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B588" s="5" t="s">
         <v>12</v>
       </c>
@@ -7161,7 +7162,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="589" spans="2:4">
+    <row r="589" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B589" s="2" t="s">
         <v>13</v>
       </c>
@@ -7172,7 +7173,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="590" spans="2:4">
+    <row r="590" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B590" s="2" t="s">
         <v>111</v>
       </c>
@@ -7181,7 +7182,7 @@
       </c>
       <c r="D590" s="3"/>
     </row>
-    <row r="591" spans="2:4">
+    <row r="591" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B591" s="2" t="s">
         <v>7</v>
       </c>
@@ -7189,7 +7190,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="592" spans="2:4">
+    <row r="592" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B592" s="2" t="s">
         <v>59</v>
       </c>
@@ -7200,7 +7201,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B593" s="2" t="s">
         <v>26</v>
       </c>
@@ -7211,7 +7212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B594" s="5" t="s">
         <v>12</v>
       </c>
@@ -7222,7 +7223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B595" s="2" t="s">
         <v>13</v>
       </c>
@@ -7233,7 +7234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B596" s="2" t="s">
         <v>26</v>
       </c>
@@ -7244,7 +7245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B597" s="5" t="s">
         <v>12</v>
       </c>
@@ -7255,7 +7256,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B598" s="2" t="s">
         <v>13</v>
       </c>
@@ -7266,7 +7267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B599" s="5" t="s">
         <v>12</v>
       </c>
@@ -7277,7 +7278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B600" s="2" t="s">
         <v>13</v>
       </c>
@@ -7288,7 +7289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B601" s="5" t="s">
         <v>46</v>
       </c>
@@ -7296,7 +7297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B602" s="5" t="s">
         <v>46</v>
       </c>
@@ -7304,7 +7305,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A603" s="2" t="s">
         <v>113</v>
       </c>
@@ -7318,7 +7319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B604" s="2" t="s">
         <v>13</v>
       </c>
@@ -7329,7 +7330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B605" s="5" t="s">
         <v>12</v>
       </c>
@@ -7340,7 +7341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B606" s="2" t="s">
         <v>13</v>
       </c>
@@ -7351,7 +7352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B607" s="5" t="s">
         <v>12</v>
       </c>
@@ -7362,7 +7363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B608" s="2" t="s">
         <v>13</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="609" spans="2:4">
+    <row r="609" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B609" s="5" t="s">
         <v>12</v>
       </c>
@@ -7384,7 +7385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="610" spans="2:4">
+    <row r="610" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B610" s="2" t="s">
         <v>13</v>
       </c>
@@ -7395,7 +7396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="611" spans="2:4">
+    <row r="611" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B611" s="5" t="s">
         <v>12</v>
       </c>
@@ -7406,7 +7407,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="612" spans="2:4">
+    <row r="612" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B612" s="2" t="s">
         <v>13</v>
       </c>
@@ -7417,7 +7418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="613" spans="2:4">
+    <row r="613" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B613" s="5" t="s">
         <v>12</v>
       </c>
@@ -7428,7 +7429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="614" spans="2:4">
+    <row r="614" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B614" s="2" t="s">
         <v>13</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="615" spans="2:4">
+    <row r="615" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B615" s="5" t="s">
         <v>12</v>
       </c>
@@ -7450,7 +7451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="616" spans="2:4">
+    <row r="616" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B616" s="2" t="s">
         <v>13</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="617" spans="2:4">
+    <row r="617" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B617" s="2" t="s">
         <v>26</v>
       </c>
@@ -7472,7 +7473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="618" spans="2:4">
+    <row r="618" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B618" s="5" t="s">
         <v>12</v>
       </c>
@@ -7483,7 +7484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="619" spans="2:4">
+    <row r="619" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B619" s="2" t="s">
         <v>13</v>
       </c>
@@ -7494,7 +7495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="620" spans="2:4">
+    <row r="620" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B620" s="5" t="s">
         <v>12</v>
       </c>
@@ -7505,7 +7506,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="621" spans="2:4">
+    <row r="621" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B621" s="2" t="s">
         <v>13</v>
       </c>
@@ -7516,7 +7517,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="622" spans="2:4">
+    <row r="622" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B622" s="5" t="s">
         <v>12</v>
       </c>
@@ -7527,7 +7528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="623" spans="2:4">
+    <row r="623" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B623" s="2" t="s">
         <v>13</v>
       </c>
@@ -7538,7 +7539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="624" spans="2:4">
+    <row r="624" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B624" s="5" t="s">
         <v>12</v>
       </c>
@@ -7549,7 +7550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="625" spans="2:4">
+    <row r="625" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B625" s="2" t="s">
         <v>13</v>
       </c>
@@ -7560,7 +7561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="626" spans="2:4">
+    <row r="626" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B626" s="5" t="s">
         <v>12</v>
       </c>
@@ -7571,7 +7572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="627" spans="2:4">
+    <row r="627" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B627" s="2" t="s">
         <v>13</v>
       </c>
@@ -7582,7 +7583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="628" spans="2:4">
+    <row r="628" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B628" s="5" t="s">
         <v>12</v>
       </c>
@@ -7593,7 +7594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="629" spans="2:4">
+    <row r="629" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B629" s="2" t="s">
         <v>13</v>
       </c>
@@ -7604,7 +7605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="630" spans="2:4">
+    <row r="630" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B630" s="2" t="s">
         <v>26</v>
       </c>
@@ -7615,7 +7616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="631" spans="2:4">
+    <row r="631" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B631" s="5" t="s">
         <v>12</v>
       </c>
@@ -7626,7 +7627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="632" spans="2:4">
+    <row r="632" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B632" s="2" t="s">
         <v>13</v>
       </c>
@@ -7637,7 +7638,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="633" spans="2:4">
+    <row r="633" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B633" s="2" t="s">
         <v>111</v>
       </c>
@@ -7645,7 +7646,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="634" spans="2:4">
+    <row r="634" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B634" s="2" t="s">
         <v>7</v>
       </c>
@@ -7653,7 +7654,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="635" spans="2:4">
+    <row r="635" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B635" s="2" t="s">
         <v>59</v>
       </c>
@@ -7664,7 +7665,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="636" spans="2:4">
+    <row r="636" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B636" s="2" t="s">
         <v>26</v>
       </c>
@@ -7675,7 +7676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="637" spans="2:4">
+    <row r="637" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B637" s="5" t="s">
         <v>12</v>
       </c>
@@ -7686,7 +7687,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="638" spans="2:4">
+    <row r="638" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B638" s="2" t="s">
         <v>13</v>
       </c>
@@ -7697,7 +7698,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="639" spans="2:4">
+    <row r="639" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B639" s="5" t="s">
         <v>12</v>
       </c>
@@ -7708,7 +7709,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="640" spans="2:4">
+    <row r="640" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B640" s="2" t="s">
         <v>13</v>
       </c>
@@ -7719,7 +7720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B641" s="5" t="s">
         <v>46</v>
       </c>
@@ -7727,7 +7728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B642" s="5" t="s">
         <v>46</v>
       </c>
@@ -7735,7 +7736,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A643" s="2" t="s">
         <v>115</v>
       </c>
@@ -7749,7 +7750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B644" s="2" t="s">
         <v>13</v>
       </c>
@@ -7760,7 +7761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B645" s="5" t="s">
         <v>12</v>
       </c>
@@ -7771,7 +7772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B646" s="2" t="s">
         <v>13</v>
       </c>
@@ -7782,7 +7783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B647" s="5" t="s">
         <v>12</v>
       </c>
@@ -7793,7 +7794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B648" s="2" t="s">
         <v>13</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B649" s="5" t="s">
         <v>12</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B650" s="2" t="s">
         <v>13</v>
       </c>
@@ -7826,7 +7827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B651" s="5" t="s">
         <v>12</v>
       </c>
@@ -7837,7 +7838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B652" s="2" t="s">
         <v>13</v>
       </c>
@@ -7848,7 +7849,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B653" s="5" t="s">
         <v>12</v>
       </c>
@@ -7859,7 +7860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B654" s="2" t="s">
         <v>13</v>
       </c>
@@ -7870,7 +7871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B655" s="5" t="s">
         <v>12</v>
       </c>
@@ -7881,7 +7882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B656" s="2" t="s">
         <v>13</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="657" spans="2:4">
+    <row r="657" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B657" s="2" t="s">
         <v>26</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="658" spans="2:4">
+    <row r="658" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B658" s="5" t="s">
         <v>12</v>
       </c>
@@ -7914,7 +7915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="659" spans="2:4">
+    <row r="659" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B659" s="2" t="s">
         <v>13</v>
       </c>
@@ -7925,7 +7926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="660" spans="2:4">
+    <row r="660" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B660" s="5" t="s">
         <v>12</v>
       </c>
@@ -7936,7 +7937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="661" spans="2:4">
+    <row r="661" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B661" s="2" t="s">
         <v>13</v>
       </c>
@@ -7947,7 +7948,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="662" spans="2:4">
+    <row r="662" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B662" s="5" t="s">
         <v>12</v>
       </c>
@@ -7958,7 +7959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="663" spans="2:4">
+    <row r="663" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B663" s="2" t="s">
         <v>13</v>
       </c>
@@ -7969,7 +7970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="664" spans="2:4">
+    <row r="664" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B664" s="5" t="s">
         <v>12</v>
       </c>
@@ -7980,7 +7981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="665" spans="2:4">
+    <row r="665" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B665" s="2" t="s">
         <v>13</v>
       </c>
@@ -7991,7 +7992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="666" spans="2:4">
+    <row r="666" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B666" s="5" t="s">
         <v>12</v>
       </c>
@@ -8002,7 +8003,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="667" spans="2:4">
+    <row r="667" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B667" s="2" t="s">
         <v>13</v>
       </c>
@@ -8013,7 +8014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="668" spans="2:4">
+    <row r="668" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B668" s="5" t="s">
         <v>12</v>
       </c>
@@ -8024,7 +8025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="669" spans="2:4">
+    <row r="669" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B669" s="2" t="s">
         <v>13</v>
       </c>
@@ -8035,7 +8036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="670" spans="2:4">
+    <row r="670" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B670" s="2" t="s">
         <v>26</v>
       </c>
@@ -8046,7 +8047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="671" spans="2:4">
+    <row r="671" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B671" s="5" t="s">
         <v>12</v>
       </c>
@@ -8057,7 +8058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="672" spans="2:4">
+    <row r="672" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B672" s="2" t="s">
         <v>13</v>
       </c>
@@ -8068,7 +8069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B673" s="5" t="s">
         <v>12</v>
       </c>
@@ -8079,7 +8080,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B674" s="2" t="s">
         <v>13</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B675" s="5" t="s">
         <v>12</v>
       </c>
@@ -8101,7 +8102,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B676" s="2" t="s">
         <v>13</v>
       </c>
@@ -8112,7 +8113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B677" s="5" t="s">
         <v>46</v>
       </c>
@@ -8120,7 +8121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B678" s="5" t="s">
         <v>46</v>
       </c>
@@ -8128,7 +8129,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B679" s="2" t="s">
         <v>111</v>
       </c>
@@ -8136,7 +8137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B680" s="2" t="s">
         <v>7</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B681" s="2" t="s">
         <v>59</v>
       </c>
@@ -8155,7 +8156,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A682" s="2" t="s">
         <v>104</v>
       </c>
@@ -8169,7 +8170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B683" s="2" t="s">
         <v>13</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B684" s="5" t="s">
         <v>12</v>
       </c>
@@ -8191,7 +8192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B685" s="2" t="s">
         <v>13</v>
       </c>
@@ -8202,7 +8203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B686" s="5" t="s">
         <v>12</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B687" s="2" t="s">
         <v>13</v>
       </c>
@@ -8224,7 +8225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B688" s="5" t="s">
         <v>12</v>
       </c>
@@ -8235,7 +8236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="689" spans="2:4">
+    <row r="689" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B689" s="2" t="s">
         <v>13</v>
       </c>
@@ -8246,7 +8247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="690" spans="2:4">
+    <row r="690" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B690" s="5" t="s">
         <v>12</v>
       </c>
@@ -8257,7 +8258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="691" spans="2:4">
+    <row r="691" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B691" s="2" t="s">
         <v>13</v>
       </c>
@@ -8268,7 +8269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="692" spans="2:4">
+    <row r="692" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B692" s="5" t="s">
         <v>12</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="693" spans="2:4">
+    <row r="693" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B693" s="2" t="s">
         <v>13</v>
       </c>
@@ -8290,7 +8291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="694" spans="2:4">
+    <row r="694" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B694" s="5" t="s">
         <v>12</v>
       </c>
@@ -8301,7 +8302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="695" spans="2:4">
+    <row r="695" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B695" s="2" t="s">
         <v>13</v>
       </c>
@@ -8312,7 +8313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="696" spans="2:4">
+    <row r="696" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B696" s="2" t="s">
         <v>26</v>
       </c>
@@ -8323,7 +8324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="697" spans="2:4">
+    <row r="697" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B697" s="5" t="s">
         <v>12</v>
       </c>
@@ -8334,7 +8335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="698" spans="2:4">
+    <row r="698" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B698" s="2" t="s">
         <v>13</v>
       </c>
@@ -8345,7 +8346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="699" spans="2:4">
+    <row r="699" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B699" s="5" t="s">
         <v>12</v>
       </c>
@@ -8356,7 +8357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="700" spans="2:4">
+    <row r="700" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B700" s="2" t="s">
         <v>13</v>
       </c>
@@ -8367,7 +8368,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="701" spans="2:4">
+    <row r="701" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B701" s="5" t="s">
         <v>12</v>
       </c>
@@ -8378,7 +8379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="702" spans="2:4">
+    <row r="702" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B702" s="2" t="s">
         <v>13</v>
       </c>
@@ -8389,7 +8390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="703" spans="2:4">
+    <row r="703" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B703" s="5" t="s">
         <v>12</v>
       </c>
@@ -8400,7 +8401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="704" spans="2:4">
+    <row r="704" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B704" s="2" t="s">
         <v>13</v>
       </c>
@@ -8411,7 +8412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="705" spans="2:4">
+    <row r="705" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B705" s="5" t="s">
         <v>12</v>
       </c>
@@ -8422,7 +8423,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="706" spans="2:4">
+    <row r="706" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B706" s="2" t="s">
         <v>13</v>
       </c>
@@ -8433,7 +8434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="707" spans="2:4">
+    <row r="707" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B707" s="5" t="s">
         <v>12</v>
       </c>
@@ -8444,7 +8445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="708" spans="2:4">
+    <row r="708" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B708" s="2" t="s">
         <v>13</v>
       </c>
@@ -8455,7 +8456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="709" spans="2:4">
+    <row r="709" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B709" s="2" t="s">
         <v>26</v>
       </c>
@@ -8466,7 +8467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="710" spans="2:4">
+    <row r="710" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B710" s="5" t="s">
         <v>12</v>
       </c>
@@ -8477,7 +8478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="711" spans="2:4">
+    <row r="711" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B711" s="2" t="s">
         <v>13</v>
       </c>
@@ -8488,7 +8489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="712" spans="2:4">
+    <row r="712" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B712" s="2" t="s">
         <v>26</v>
       </c>
@@ -8499,7 +8500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="713" spans="2:4">
+    <row r="713" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B713" s="5" t="s">
         <v>12</v>
       </c>
@@ -8510,7 +8511,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="714" spans="2:4">
+    <row r="714" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B714" s="2" t="s">
         <v>13</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="715" spans="2:4">
+    <row r="715" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B715" s="2" t="s">
         <v>111</v>
       </c>
@@ -8529,7 +8530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="716" spans="2:4">
+    <row r="716" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B716" s="2" t="s">
         <v>7</v>
       </c>
@@ -8537,15 +8538,18 @@
         <v>105</v>
       </c>
     </row>
-    <row r="717" spans="2:4">
+    <row r="717" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B717" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C717" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="718" spans="2:4">
+      <c r="D717" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="718" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B718" s="5" t="s">
         <v>12</v>
       </c>
@@ -8556,7 +8560,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="719" spans="2:4">
+    <row r="719" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B719" s="2" t="s">
         <v>13</v>
       </c>
@@ -8567,7 +8571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="720" spans="2:4">
+    <row r="720" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B720" s="5" t="s">
         <v>46</v>
       </c>
@@ -8575,7 +8579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="721" spans="1:4">
+    <row r="721" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B721" s="5" t="s">
         <v>46</v>
       </c>
@@ -8583,7 +8587,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A722" s="2" t="s">
         <v>106</v>
       </c>
@@ -8597,7 +8601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B723" s="2" t="s">
         <v>13</v>
       </c>
@@ -8608,7 +8612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B724" s="5" t="s">
         <v>12</v>
       </c>
@@ -8619,7 +8623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B725" s="2" t="s">
         <v>13</v>
       </c>
@@ -8630,7 +8634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B726" s="5" t="s">
         <v>12</v>
       </c>
@@ -8641,7 +8645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B727" s="2" t="s">
         <v>13</v>
       </c>
@@ -8652,7 +8656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B728" s="5" t="s">
         <v>12</v>
       </c>
@@ -8663,7 +8667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B729" s="2" t="s">
         <v>13</v>
       </c>
@@ -8674,7 +8678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="730" spans="1:4">
+    <row r="730" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B730" s="5" t="s">
         <v>12</v>
       </c>
@@ -8685,7 +8689,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B731" s="2" t="s">
         <v>13</v>
       </c>
@@ -8696,7 +8700,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B732" s="5" t="s">
         <v>12</v>
       </c>
@@ -8707,7 +8711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B733" s="2" t="s">
         <v>13</v>
       </c>
@@ -8718,7 +8722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="734" spans="1:4">
+    <row r="734" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B734" s="5" t="s">
         <v>12</v>
       </c>
@@ -8729,7 +8733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B735" s="2" t="s">
         <v>13</v>
       </c>
@@ -8740,7 +8744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="736" spans="1:4">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B736" s="2" t="s">
         <v>26</v>
       </c>
@@ -8751,7 +8755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="737" spans="2:4">
+    <row r="737" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B737" s="5" t="s">
         <v>12</v>
       </c>
@@ -8762,7 +8766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="738" spans="2:4">
+    <row r="738" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B738" s="2" t="s">
         <v>13</v>
       </c>
@@ -8773,7 +8777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="739" spans="2:4">
+    <row r="739" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B739" s="5" t="s">
         <v>12</v>
       </c>
@@ -8784,7 +8788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="740" spans="2:4">
+    <row r="740" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B740" s="2" t="s">
         <v>13</v>
       </c>
@@ -8795,7 +8799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="741" spans="2:4">
+    <row r="741" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B741" s="5" t="s">
         <v>12</v>
       </c>
@@ -8806,7 +8810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="742" spans="2:4">
+    <row r="742" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B742" s="2" t="s">
         <v>13</v>
       </c>
@@ -8817,7 +8821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="743" spans="2:4">
+    <row r="743" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B743" s="5" t="s">
         <v>12</v>
       </c>
@@ -8828,7 +8832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="744" spans="2:4">
+    <row r="744" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B744" s="2" t="s">
         <v>13</v>
       </c>
@@ -8839,7 +8843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="745" spans="2:4">
+    <row r="745" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B745" s="5" t="s">
         <v>12</v>
       </c>
@@ -8850,7 +8854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="746" spans="2:4">
+    <row r="746" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B746" s="2" t="s">
         <v>13</v>
       </c>
@@ -8861,7 +8865,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="747" spans="2:4">
+    <row r="747" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B747" s="5" t="s">
         <v>12</v>
       </c>
@@ -8872,7 +8876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="748" spans="2:4">
+    <row r="748" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B748" s="2" t="s">
         <v>13</v>
       </c>
@@ -8883,7 +8887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="749" spans="2:4">
+    <row r="749" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B749" s="2" t="s">
         <v>26</v>
       </c>
@@ -8894,7 +8898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="750" spans="2:4">
+    <row r="750" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B750" s="5" t="s">
         <v>12</v>
       </c>
@@ -8905,7 +8909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="751" spans="2:4">
+    <row r="751" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B751" s="2" t="s">
         <v>13</v>
       </c>
@@ -8916,7 +8920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="752" spans="2:4">
+    <row r="752" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B752" s="2" t="s">
         <v>26</v>
       </c>
@@ -8927,7 +8931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B753" s="5" t="s">
         <v>12</v>
       </c>
@@ -8938,7 +8942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B754" s="2" t="s">
         <v>13</v>
       </c>
@@ -8949,7 +8953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B755" s="5" t="s">
         <v>46</v>
       </c>
@@ -8957,7 +8961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="756" spans="1:4">
+    <row r="756" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B756" s="5" t="s">
         <v>46</v>
       </c>
@@ -8965,7 +8969,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="757" spans="1:4">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B757" s="2" t="s">
         <v>7</v>
       </c>
@@ -8973,7 +8977,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="758" spans="1:4">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B758" s="2" t="s">
         <v>59</v>
       </c>
@@ -8984,7 +8988,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="759" spans="1:4">
+    <row r="759" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A759" s="2" t="s">
         <v>109</v>
       </c>
@@ -8998,7 +9002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="760" spans="1:4">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B760" s="2" t="s">
         <v>13</v>
       </c>
@@ -9009,7 +9013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="761" spans="1:4">
+    <row r="761" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B761" s="5" t="s">
         <v>12</v>
       </c>
@@ -9020,7 +9024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="762" spans="1:4">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B762" s="2" t="s">
         <v>13</v>
       </c>
@@ -9031,7 +9035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="763" spans="1:4">
+    <row r="763" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B763" s="5" t="s">
         <v>12</v>
       </c>
@@ -9042,7 +9046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="764" spans="1:4">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B764" s="2" t="s">
         <v>13</v>
       </c>
@@ -9053,7 +9057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="765" spans="1:4">
+    <row r="765" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B765" s="5" t="s">
         <v>12</v>
       </c>
@@ -9064,7 +9068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="766" spans="1:4">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B766" s="2" t="s">
         <v>13</v>
       </c>
@@ -9075,7 +9079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="767" spans="1:4">
+    <row r="767" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B767" s="5" t="s">
         <v>12</v>
       </c>
@@ -9086,7 +9090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B768" s="2" t="s">
         <v>13</v>
       </c>
@@ -9097,7 +9101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="769" spans="2:4">
+    <row r="769" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B769" s="5" t="s">
         <v>12</v>
       </c>
@@ -9108,7 +9112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="770" spans="2:4">
+    <row r="770" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B770" s="2" t="s">
         <v>13</v>
       </c>
@@ -9119,7 +9123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="771" spans="2:4">
+    <row r="771" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B771" s="5" t="s">
         <v>12</v>
       </c>
@@ -9130,7 +9134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="772" spans="2:4">
+    <row r="772" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B772" s="2" t="s">
         <v>13</v>
       </c>
@@ -9141,7 +9145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="773" spans="2:4">
+    <row r="773" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B773" s="2" t="s">
         <v>26</v>
       </c>
@@ -9152,7 +9156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="774" spans="2:4">
+    <row r="774" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B774" s="5" t="s">
         <v>12</v>
       </c>
@@ -9163,7 +9167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="775" spans="2:4">
+    <row r="775" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B775" s="2" t="s">
         <v>13</v>
       </c>
@@ -9174,7 +9178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="776" spans="2:4">
+    <row r="776" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B776" s="5" t="s">
         <v>12</v>
       </c>
@@ -9185,7 +9189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="777" spans="2:4">
+    <row r="777" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B777" s="2" t="s">
         <v>13</v>
       </c>
@@ -9196,7 +9200,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="778" spans="2:4">
+    <row r="778" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B778" s="5" t="s">
         <v>12</v>
       </c>
@@ -9207,7 +9211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="779" spans="2:4">
+    <row r="779" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B779" s="2" t="s">
         <v>13</v>
       </c>
@@ -9218,7 +9222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="780" spans="2:4">
+    <row r="780" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B780" s="5" t="s">
         <v>12</v>
       </c>
@@ -9229,7 +9233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="781" spans="2:4">
+    <row r="781" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B781" s="2" t="s">
         <v>13</v>
       </c>
@@ -9240,7 +9244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="782" spans="2:4">
+    <row r="782" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B782" s="5" t="s">
         <v>12</v>
       </c>
@@ -9251,7 +9255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="783" spans="2:4">
+    <row r="783" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B783" s="2" t="s">
         <v>13</v>
       </c>
@@ -9262,7 +9266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="784" spans="2:4">
+    <row r="784" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B784" s="5" t="s">
         <v>12</v>
       </c>
@@ -9273,7 +9277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="785" spans="1:4">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B785" s="2" t="s">
         <v>13</v>
       </c>
@@ -9284,7 +9288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="786" spans="1:4">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B786" s="2" t="s">
         <v>26</v>
       </c>
@@ -9295,7 +9299,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="787" spans="1:4">
+    <row r="787" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B787" s="5" t="s">
         <v>12</v>
       </c>
@@ -9306,7 +9310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="788" spans="1:4">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B788" s="2" t="s">
         <v>13</v>
       </c>
@@ -9317,7 +9321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="789" spans="1:4">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B789" s="2" t="s">
         <v>26</v>
       </c>
@@ -9328,7 +9332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="790" spans="1:4">
+    <row r="790" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B790" s="5" t="s">
         <v>12</v>
       </c>
@@ -9339,7 +9343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="791" spans="1:4">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B791" s="2" t="s">
         <v>13</v>
       </c>
@@ -9350,7 +9354,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="792" spans="1:4">
+    <row r="792" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B792" s="5" t="s">
         <v>12</v>
       </c>
@@ -9361,7 +9365,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="793" spans="1:4">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B793" s="2" t="s">
         <v>13</v>
       </c>
@@ -9372,7 +9376,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="794" spans="1:4">
+    <row r="794" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B794" s="5" t="s">
         <v>46</v>
       </c>
@@ -9380,7 +9384,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="795" spans="1:4">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B795" s="2" t="s">
         <v>7</v>
       </c>
@@ -9388,7 +9392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="796" spans="1:4">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B796" s="2" t="s">
         <v>59</v>
       </c>
@@ -9399,7 +9403,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="797" spans="1:4">
+    <row r="797" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A797" s="2" t="s">
         <v>119</v>
       </c>
@@ -9413,7 +9417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="798" spans="1:4">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B798" s="2" t="s">
         <v>13</v>
       </c>
@@ -9424,7 +9428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="799" spans="1:4">
+    <row r="799" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B799" s="5" t="s">
         <v>12</v>
       </c>
@@ -9435,7 +9439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="800" spans="1:4">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B800" s="2" t="s">
         <v>13</v>
       </c>
@@ -9446,7 +9450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="801" spans="2:4">
+    <row r="801" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B801" s="5" t="s">
         <v>12</v>
       </c>
@@ -9457,7 +9461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="802" spans="2:4">
+    <row r="802" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B802" s="2" t="s">
         <v>13</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="803" spans="2:4">
+    <row r="803" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B803" s="5" t="s">
         <v>12</v>
       </c>
@@ -9479,7 +9483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="804" spans="2:4">
+    <row r="804" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B804" s="2" t="s">
         <v>13</v>
       </c>
@@ -9490,7 +9494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="805" spans="2:4">
+    <row r="805" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B805" s="5" t="s">
         <v>12</v>
       </c>
@@ -9501,7 +9505,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="806" spans="2:4">
+    <row r="806" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B806" s="2" t="s">
         <v>13</v>
       </c>
@@ -9512,7 +9516,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="807" spans="2:4">
+    <row r="807" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B807" s="5" t="s">
         <v>12</v>
       </c>
@@ -9523,7 +9527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="808" spans="2:4">
+    <row r="808" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B808" s="2" t="s">
         <v>13</v>
       </c>
@@ -9534,7 +9538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="809" spans="2:4">
+    <row r="809" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B809" s="5" t="s">
         <v>12</v>
       </c>
@@ -9545,7 +9549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="810" spans="2:4">
+    <row r="810" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B810" s="2" t="s">
         <v>13</v>
       </c>
@@ -9556,7 +9560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="811" spans="2:4">
+    <row r="811" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B811" s="2" t="s">
         <v>26</v>
       </c>
@@ -9567,7 +9571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="812" spans="2:4">
+    <row r="812" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B812" s="5" t="s">
         <v>12</v>
       </c>
@@ -9578,7 +9582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="813" spans="2:4">
+    <row r="813" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B813" s="2" t="s">
         <v>13</v>
       </c>
@@ -9589,7 +9593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="814" spans="2:4">
+    <row r="814" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B814" s="5" t="s">
         <v>12</v>
       </c>
@@ -9600,7 +9604,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="815" spans="2:4">
+    <row r="815" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B815" s="2" t="s">
         <v>13</v>
       </c>
@@ -9611,7 +9615,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="816" spans="2:4">
+    <row r="816" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B816" s="5" t="s">
         <v>12</v>
       </c>
@@ -9622,7 +9626,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="817" spans="2:4">
+    <row r="817" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B817" s="2" t="s">
         <v>13</v>
       </c>
@@ -9633,7 +9637,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="818" spans="2:4">
+    <row r="818" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B818" s="5" t="s">
         <v>12</v>
       </c>
@@ -9644,7 +9648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="819" spans="2:4">
+    <row r="819" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B819" s="2" t="s">
         <v>13</v>
       </c>
@@ -9655,7 +9659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="820" spans="2:4">
+    <row r="820" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B820" s="5" t="s">
         <v>12</v>
       </c>
@@ -9666,7 +9670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="821" spans="2:4">
+    <row r="821" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B821" s="2" t="s">
         <v>13</v>
       </c>
@@ -9677,7 +9681,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="822" spans="2:4">
+    <row r="822" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B822" s="5" t="s">
         <v>12</v>
       </c>
@@ -9688,7 +9692,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="823" spans="2:4">
+    <row r="823" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B823" s="2" t="s">
         <v>13</v>
       </c>
@@ -9699,7 +9703,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="824" spans="2:4">
+    <row r="824" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B824" s="5" t="s">
         <v>12</v>
       </c>
@@ -9710,7 +9714,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="825" spans="2:4">
+    <row r="825" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B825" s="2" t="s">
         <v>13</v>
       </c>
@@ -9721,7 +9725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="826" spans="2:4">
+    <row r="826" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B826" s="2" t="s">
         <v>26</v>
       </c>
@@ -9732,7 +9736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="827" spans="2:4">
+    <row r="827" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B827" s="5" t="s">
         <v>12</v>
       </c>
@@ -9743,7 +9747,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="828" spans="2:4">
+    <row r="828" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B828" s="2" t="s">
         <v>13</v>
       </c>
@@ -9754,7 +9758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="829" spans="2:4">
+    <row r="829" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B829" s="5" t="s">
         <v>12</v>
       </c>
@@ -9765,7 +9769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="830" spans="2:4">
+    <row r="830" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B830" s="2" t="s">
         <v>13</v>
       </c>
@@ -9776,7 +9780,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="831" spans="2:4">
+    <row r="831" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B831" s="5" t="s">
         <v>46</v>
       </c>
@@ -9784,7 +9788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="832" spans="2:4">
+    <row r="832" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B832" s="5" t="s">
         <v>46</v>
       </c>
@@ -9792,7 +9796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="833" spans="1:4">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B833" s="2" t="s">
         <v>111</v>
       </c>
@@ -9800,7 +9804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="834" spans="1:4">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B834" s="2" t="s">
         <v>7</v>
       </c>
@@ -9808,7 +9812,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="835" spans="1:4">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B835" s="2" t="s">
         <v>59</v>
       </c>
@@ -9819,7 +9823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="836" spans="1:4">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A836" s="2" t="s">
         <v>51</v>
       </c>
@@ -9834,107 +9838,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D744"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="70.9140625" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="70.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="50.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="2" customFormat="1"/>
-    <row r="3" spans="2:4" s="2" customFormat="1"/>
-    <row r="4" spans="2:4" s="2" customFormat="1">
+    <row r="2" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="2:4" s="2" customFormat="1"/>
-    <row r="6" spans="2:4" s="2" customFormat="1">
+    <row r="5" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="2:4" s="2" customFormat="1"/>
-    <row r="8" spans="2:4" s="2" customFormat="1">
+    <row r="7" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:4" s="2" customFormat="1"/>
-    <row r="10" spans="2:4" s="2" customFormat="1">
+    <row r="9" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="2:4" s="2" customFormat="1">
+    <row r="11" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="2:4" s="2" customFormat="1">
+    <row r="12" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="2:4" s="2" customFormat="1"/>
-    <row r="14" spans="2:4" s="2" customFormat="1">
+    <row r="13" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="2:4" s="2" customFormat="1"/>
-    <row r="16" spans="2:4" s="2" customFormat="1">
+    <row r="15" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="2:4" s="2" customFormat="1"/>
-    <row r="18" spans="2:4" s="2" customFormat="1"/>
-    <row r="19" spans="2:4" s="2" customFormat="1">
+    <row r="17" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="2:4" s="2" customFormat="1"/>
-    <row r="21" spans="2:4" s="2" customFormat="1">
+    <row r="20" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" s="2" customFormat="1">
+    <row r="22" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4" s="2" customFormat="1">
+    <row r="23" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="2:4" s="2" customFormat="1"/>
-    <row r="25" spans="2:4" s="2" customFormat="1">
+    <row r="24" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="2:4" s="2" customFormat="1"/>
-    <row r="27" spans="2:4" s="2" customFormat="1">
+    <row r="26" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="2:4" s="2" customFormat="1"/>
-    <row r="29" spans="2:4" s="2" customFormat="1">
+    <row r="28" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:4" s="2" customFormat="1">
+    <row r="30" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:4" s="2" customFormat="1">
+    <row r="31" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="2:4" s="2" customFormat="1"/>
-    <row r="33" spans="2:2" s="2" customFormat="1"/>
-    <row r="34" spans="2:2" s="2" customFormat="1">
+    <row r="32" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="2:2" s="2" customFormat="1"/>
-    <row r="36" spans="2:2" s="2" customFormat="1">
+    <row r="35" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="2:2" s="2" customFormat="1"/>
-    <row r="38" spans="2:2" s="2" customFormat="1">
+    <row r="37" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="2:2" s="2" customFormat="1">
+    <row r="39" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="2:2" s="2" customFormat="1"/>
-    <row r="41" spans="2:2" s="2" customFormat="1"/>
-    <row r="743" spans="2:3" s="2" customFormat="1">
+    <row r="40" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="743" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B743" s="2" t="s">
         <v>7</v>
       </c>
@@ -9942,7 +9946,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="744" spans="2:3" s="2" customFormat="1">
+    <row r="744" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B744" s="2" t="s">
         <v>59</v>
       </c>

--- a/src/main/resources/FeatureFiles/Register-a-deal FormTestCases.xlsx
+++ b/src/main/resources/FeatureFiles/Register-a-deal FormTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/FeatureFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE75445-5E24-D741-95A0-B098E0DDF846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B1A071-0CE2-BA45-B755-C5343882625C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10820" yWindow="1180" windowWidth="19420" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="125">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>{BaseURL}+/register-a-deal/</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
 </sst>
 </file>
@@ -806,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F836"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -819,7 +822,7 @@
     <col min="5" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,8 +835,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -844,7 +850,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -852,7 +858,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -860,7 +866,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -869,12 +875,12 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -888,7 +894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -899,7 +905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
@@ -910,7 +916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -921,7 +927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -932,7 +938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -943,7 +949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
@@ -954,7 +960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -965,7 +971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
@@ -976,7 +982,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
